--- a/version1/Final-Project-Test-Cases.xlsx
+++ b/version1/Final-Project-Test-Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\utsab\CPR101\version1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bed6cc5d2ef11c33/Documents/Ahmad/0_Seneca/CPR101/Final Project/Milind5224 CPR101 main version1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8034C3F6-141A-48AA-953F-0610989F830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{8034C3F6-141A-48AA-953F-0610989F830A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85CAC699-4C9D-4104-858B-12CF5CEFBBD3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -774,7 +774,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="47">
   <si>
     <t>Comments</t>
   </si>
@@ -935,7 +935,71 @@
     <t>L</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>HELLO, 0</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Ahmad Sheikh
+November 21 2023</t>
+  </si>
+  <si>
+    <t>HELLO, 4</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>N, O</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>GOOD, BYE</t>
+  </si>
+  <si>
+    <t>GOODBYE</t>
+  </si>
+  <si>
+    <t>HELLO MY NAME, IS AHMAD</t>
+  </si>
+  <si>
+    <t>HELLO MY NAME IS AHMAD</t>
+  </si>
+  <si>
+    <t>H, ' '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word #1 is 'H' </t>
+  </si>
+  <si>
+    <t>Word #1 is 'H'</t>
+  </si>
+  <si>
+    <t>HELLO, FRIEND</t>
+  </si>
+  <si>
+    <t>Word #1 is 'HELLO', Word #2 is 'FRIEND'</t>
+  </si>
+  <si>
+    <t>HELLO, MY, NAME, IS</t>
+  </si>
+  <si>
+    <t>Word #1 is 'HELLO', Word #2 is 'MY', Word #3 is 'NAME', Word #4 is 'IS'</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t>works without typing in a number as well which is good</t>
+  </si>
+  <si>
+    <t>works with white spaces as well</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1453,6 +1517,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1744,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8467BC1A-7E6C-461F-88DC-8200B861EB6B}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1787,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -1822,16 +1889,16 @@
         <v>20</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="25" t="s">
@@ -1846,10 +1913,18 @@
       <c r="B5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="17"/>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" t="str">
         <f>$H$4</f>
@@ -1864,10 +1939,18 @@
       <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="17"/>
+      <c r="C6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" t="str">
         <f t="shared" ref="H6:H15" si="0">$H$4</f>
@@ -1882,10 +1965,18 @@
       <c r="B7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="17"/>
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -1900,10 +1991,18 @@
       <c r="B8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="17"/>
+      <c r="C8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -1911,17 +2010,25 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="17"/>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -1936,28 +2043,46 @@
       <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="3"/>
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>These test cases should come from the module test cases</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="17"/>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -1965,17 +2090,25 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
+      <c r="C12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -1983,18 +2116,28 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="10"/>
+      <c r="C13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>These test cases should come from the module test cases</v>
@@ -2008,10 +2151,18 @@
       <c r="B14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="17"/>
+      <c r="C14" s="19">
+        <v>123</v>
+      </c>
+      <c r="D14" s="19">
+        <v>123</v>
+      </c>
+      <c r="E14" s="18">
+        <v>123</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -2026,10 +2177,18 @@
       <c r="B15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="17"/>
+      <c r="C15" s="19">
+        <v>2147483647</v>
+      </c>
+      <c r="D15" s="19">
+        <v>2147483647</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2147483647</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
